--- a/BERT - Overview.xlsx
+++ b/BERT - Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1530ab8c46e3e32a/Documenten/Mobiquity/Code/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{A37424F2-8656-784C-867D-93A93A44D9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CD028E47-8854-ED4A-AF9C-995FAC894288}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{A37424F2-8656-784C-867D-93A93A44D9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4601BA49-27CE-A545-B30C-F1942F83363E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F40124F6-A04B-2F4A-B6F3-1CBEA0574B47}"/>
   </bookViews>
@@ -459,14 +459,18 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -611,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
